--- a/SimpleModel.xlsx
+++ b/SimpleModel.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INPUTS" sheetId="1" r:id="rId1"/>
     <sheet name="OUTPUTS" sheetId="2" r:id="rId2"/>
     <sheet name="MODEL" sheetId="3" r:id="rId3"/>
-    <sheet name="Example DB entry" sheetId="4" r:id="rId4"/>
+    <sheet name="DATABASE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Input Name</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Output5</t>
-  </si>
-  <si>
-    <t>Case</t>
   </si>
 </sst>
 </file>
@@ -799,7 +796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F5"/>
     </sheetView>
   </sheetViews>
@@ -986,165 +983,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <v>7.2347646087235749</v>
-      </c>
-      <c r="M2">
-        <v>9.9314160647562701</v>
-      </c>
-      <c r="N2">
-        <v>4.9436975586840592</v>
-      </c>
-      <c r="O2">
-        <v>1.8280356019355644</v>
-      </c>
-      <c r="P2">
-        <v>3.58493380493436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>4.9780970777078348</v>
-      </c>
-      <c r="M3">
-        <v>6.8793644776059226</v>
-      </c>
-      <c r="N3">
-        <v>2.0035755300933404</v>
-      </c>
-      <c r="O3">
-        <v>1.8280356019355644</v>
-      </c>
-      <c r="P3">
-        <v>1.4339735219737439</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
